--- a/Texts/Город Сокровищ/Гильдия Виглитаффа/Гильдейский Обеденный Зал.xlsx
+++ b/Texts/Город Сокровищ/Гильдия Виглитаффа/Гильдейский Обеденный Зал.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Раздел</t>
   </si>
@@ -49,6 +49,60 @@
   </si>
   <si>
     <t>[CN]Ðïçàìôêòóà, ôíúâàêóå ìàðú ðåñåä åäïê!\n[CN]                             -[CS:N]Œàêíåëï[CR]</t>
+  </si>
+  <si>
+    <t>Бахнув Яблок</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P06B/c00a0601.ssb</t>
+  </si>
+  <si>
+    <t>Crunch-munch! Chew-chew! Snuffle-slurp!\nCrunch-munch! Chew-chew! Snuffle-slurp!</t>
+  </si>
+  <si>
+    <t>89 - 104</t>
+  </si>
+  <si>
+    <t>Хрум-хрум! Ням-ням! Хлюп-хлюп!\nХрум-хрум! Ням-ням! Хлюп-хлюп!</t>
+  </si>
+  <si>
+    <t>Öñôí-öñôí! Îÿí-îÿí! Öìýð-öìýð!\nÖñôí-öñôí! Îÿí-îÿí! Öìýð-öìýð!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aaaaah! I\'m done eating! Excellent meal!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m stuffed, and now I\'m getting sleepy…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yep, I\'m off to bed! Good night, gang!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ааааах! Я наелся!\nПрекрасный ужин!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Живот набит и теперь я хочу\nспать...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Да, пойду спать!\nДоброй ночи, ребята!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Àààààö! Ÿ îàåìòÿ!\nÐñåëñàòîúê ôçéî!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Çéâïó îàáéó é óåðåñû ÿ öïœô\nòðàóû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äà, ðïêäô òðàóû!\nÄïáñïê îïœé, ñåáÿóà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Good night!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Доброй ночи!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äïáñïê îïœé!</t>
   </si>
 </sst>
 </file>
@@ -182,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -212,6 +266,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -494,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,6 +610,82 @@
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
     </row>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4">
+        <v>115</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>119</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>123</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>127</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
